--- a/medicine/Enfance/Élise_Fugler/Élise_Fugler.xlsx
+++ b/medicine/Enfance/Élise_Fugler/Élise_Fugler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lise_Fugler</t>
+          <t>Élise_Fugler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élise Fugler, née à Strasbourg le 25 septembre 1970, est une écrivaine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lise_Fugler</t>
+          <t>Élise_Fugler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élise Fugler est la fille de l'auteur et journaliste René Fugler et de la bibliothécaire Christiane de Morgues. Elle fait ses études secondaires au Lycée international des Pontonniers puis étudie la philosophie, le cinéma, l'écriture de scénario, l'anthropologie avec Jean Rouch et Germaine Dieterlen à l'EPHE[1] et la réalisation de documentaires à l'Université Paris-Nanterre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élise Fugler est la fille de l'auteur et journaliste René Fugler et de la bibliothécaire Christiane de Morgues. Elle fait ses études secondaires au Lycée international des Pontonniers puis étudie la philosophie, le cinéma, l'écriture de scénario, l'anthropologie avec Jean Rouch et Germaine Dieterlen à l'EPHE et la réalisation de documentaires à l'Université Paris-Nanterre.
 Elle a travaillé pour la télévision, le cinéma, comme formatrice, en digital learning et dans des bibliothèques publiques et privées (dans l'aérospatial).
-Elle est membre de l'association Mensa et pratique le jiu-jitsu brésilien[2].
+Elle est membre de l'association Mensa et pratique le jiu-jitsu brésilien.
 Son premier roman publié en 1999, Les Frigos ont horreur du vide, a été nommé pour le prix SNCF du premier polar. Son deuxième roman, L'Art du mou, dont l'action se situe au Burkina Faso, est l'épisode numéro 5 de la série Moulard publiée aux Éditions de l'Aube. Les quatre épisodes précédents  sont signés  Catherine Fradier, Jean-Jacques Reboux, Yves Bulteau et Laurent Fétis. Son troisième polar, Nom de nom, à Zinc Éditions, est inspiré d'un fait divers s'étant déroulé dans un hôpital. Éteignez la lumière ! Et autres sombres histoires, publié aux Éditions Après la Lune, est un recueil de onze nouvelles.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lise_Fugler</t>
+          <t>Élise_Fugler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,26 +561,167 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1999 : Les frigos ont horreur du vide[3], Éditions Baleine (Éditions du Seuil)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999 : Les frigos ont horreur du vide, Éditions Baleine (Éditions du Seuil)
 2000 : L'Art du mou, Éditions de l'Aube
-2004 : Nom de nom !, Zinc Éditions
-Recueil de nouvelles
-2020 : Éteignez la lumière ! Et autres sombres histoires[4],[5],[6]. Éditions Après la Lune
-Nouvelles
-La Liste[7]
+2004 : Nom de nom !, Zinc Éditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élise_Fugler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lise_Fugler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : Éteignez la lumière ! Et autres sombres histoires. Éditions Après la Lune</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élise_Fugler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lise_Fugler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Liste
 Rue meurtre
 Plaisir partagé
-Papa poulpe in 22 mars 2000 : C'est un bon jour pour Gabriel ( Le Poulpe (collection) no 186) [8]
+Papa poulpe in 22 mars 2000 : C'est un bon jour pour Gabriel ( Le Poulpe (collection) no 186) 
 Pour un wagon de trop
 Casse-toi !
-Le Belvédère des à-valoir
-Albums pour enfants
-Avec la dessinatrice Corinne Demuynck : 
-2006 : Papa Maman ne s'aiment plus[9],[10],[11], Ed. La Cabane sur le chien
-2020 : Papa et Maman ne s'aiment plus. Éditions du Jasmin, réédition avec de nouvelles illustrations
-Parascolaire
-2021 : Gagnez des places à votre concours, Guide pratique pour réussir, Éditions Ellipses</t>
+Le Belvédère des à-valoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élise_Fugler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lise_Fugler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec la dessinatrice Corinne Demuynck : 
+2006 : Papa Maman ne s'aiment plus Ed. La Cabane sur le chien
+2020 : Papa et Maman ne s'aiment plus. Éditions du Jasmin, réédition avec de nouvelles illustrations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Élise_Fugler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lise_Fugler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parascolaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021 : Gagnez des places à votre concours, Guide pratique pour réussir, Éditions Ellipses</t>
         </is>
       </c>
     </row>
